--- a/unsteady/test_cases/trench_sediment_no_sqrt/adapt_output.xlsx
+++ b/unsteady/test_cases/trench_sediment_no_sqrt/adapt_output.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/trench_sediment_no_sqrt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BD254-CE4E-9B49-83A8-35AA145863DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F129AC7-C792-C748-B2E0-A1B0145A2A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="460" windowWidth="12600" windowHeight="15540" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="2" r:id="rId1"/>
+    <sheet name="diff_time" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>alpha</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>div</t>
+  </si>
+  <si>
+    <t>Total error: </t>
+  </si>
+  <si>
+    <t>total time: </t>
+  </si>
+  <si>
+    <t>Mesh error: </t>
+  </si>
+  <si>
+    <t>Total error:</t>
+  </si>
+  <si>
+    <t>total time:</t>
+  </si>
+  <si>
+    <t>Mesh error:</t>
+  </si>
+  <si>
+    <t>dt = 2</t>
+  </si>
+  <si>
+    <t>dt =2</t>
+  </si>
+  <si>
+    <t>dt = 1</t>
+  </si>
+  <si>
+    <t>dt = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -138,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,6 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10606F8F-2CF2-F24F-9F2B-6B5CA5CC7A31}">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +552,8 @@
         <v>0.05</v>
       </c>
       <c r="N1" s="4"/>
-      <c r="O1" s="6"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -595,7 +630,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="2"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
@@ -619,7 +654,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
@@ -651,8 +686,22 @@
       <c r="J5" s="5">
         <v>9.6419568745148501E-7</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -676,8 +725,21 @@
       <c r="J6" s="5">
         <v>9.33853376580684E-7</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>1.6</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -709,9 +771,22 @@
       </c>
       <c r="K7" s="10"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="S7" s="3"/>
+      <c r="N7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7">
+        <v>0.125</v>
+      </c>
+      <c r="Q7">
+        <v>0.25</v>
+      </c>
+      <c r="R7">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -739,11 +814,26 @@
       <c r="I8" s="5">
         <v>3.9630030443042102E-7</v>
       </c>
+      <c r="J8" s="5">
+        <v>8.1417897643958399E-7</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="1"/>
-      <c r="S8" s="3"/>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -776,10 +866,22 @@
       </c>
       <c r="K9" s="10"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="1"/>
-      <c r="S9" s="3"/>
+      <c r="N9" s="1">
+        <v>1.4732260557449601E-2</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>2.16931285566817E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.2744557236176601E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.3868621448291698E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.3904088308841699E-2</v>
+      </c>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -812,10 +914,22 @@
       </c>
       <c r="K10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="1"/>
-      <c r="S10" s="3"/>
+      <c r="N10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -847,10 +961,22 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>418.17234873771599</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="S11" s="3"/>
+      <c r="P11" s="1">
+        <v>506.69950962066599</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>708.56517410278298</v>
+      </c>
+      <c r="R11" s="1">
+        <v>827.41516375541596</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1062.85665082931</v>
+      </c>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -878,10 +1004,22 @@
       <c r="I12" s="1"/>
       <c r="J12" s="5"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="1"/>
-      <c r="S12" s="3"/>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -910,10 +1048,22 @@
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="1"/>
-      <c r="S13" s="3"/>
+      <c r="N13" s="1">
+        <v>1.9549179677759098E-3</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>1.1822978891192E-4</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2.1852939546832899E-5</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2.1452585025945299E-6</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1.65303237395208E-6</v>
+      </c>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -943,8 +1093,8 @@
       <c r="K14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="5"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
@@ -973,9 +1123,16 @@
       <c r="I15" s="2"/>
       <c r="J15" s="5"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
@@ -1005,13 +1162,20 @@
       <c r="J16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="1">
+        <v>4.9792759485717E-2</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>1.6679263205118401E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.3153879766739899E-2</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>17</v>
       </c>
@@ -1036,13 +1200,21 @@
       <c r="I17" s="2"/>
       <c r="J17" s="5"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="1"/>
-      <c r="S17" s="3"/>
+      <c r="N17" s="1">
+        <v>90.149059057235704</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>130.90768671035701</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>209.17518615722599</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>20</v>
       </c>
@@ -1057,13 +1229,21 @@
       <c r="I18" s="10"/>
       <c r="J18" s="5"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="1"/>
-      <c r="S18" s="3"/>
+      <c r="N18" s="1">
+        <v>5.2670485162473598E-3</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>2.8698742594286501E-3</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>6.0130035283743797E-5</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>6.6975001410800303E-2</v>
       </c>
@@ -1099,11 +1279,13 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <v>130.90768671035701</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>5.8670821534324798E-2</v>
       </c>
@@ -1141,7 +1323,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1179,9 +1361,8 @@
         <v>4</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>16/(16*5*C21)</f>
         <v>2</v>
@@ -1223,9 +1404,8 @@
         <v>0.05</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -1266,7 +1446,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>5.1664833608088698E-2</v>
       </c>
@@ -1304,7 +1484,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1326,7 +1506,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1355,11 +1535,35 @@
         <v>2.4672233763655699E-2</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1">
+        <f>R27*0.25</f>
+        <v>30</v>
+      </c>
+      <c r="S26" s="1">
+        <f>S27*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26" si="4">T27*0.25</f>
+        <v>60</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" ref="U26" si="5">U27*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" ref="V26" si="6">V27*0.25</f>
+        <v>270</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ref="W26" si="7">W27*0.25</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1379,11 +1583,38 @@
         <v>2.4669199306612599E-2</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>40</v>
+      </c>
+      <c r="R27" s="1">
+        <v>120</v>
+      </c>
+      <c r="S27">
+        <v>180</v>
+      </c>
+      <c r="T27" s="1">
+        <v>240</v>
+      </c>
+      <c r="U27" s="1">
+        <v>360</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1080</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>2</v>
       </c>
@@ -1411,12 +1642,39 @@
       <c r="J28" s="1">
         <v>2.4655022520594899E-2</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P28" s="1">
+        <v>1.23949515490381E-3</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.36256955777463E-3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.55848900346616E-3</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.5997229316549501E-3</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.6701830948668501E-3</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1.6779149569514E-3</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2.7473158596697002E-3</v>
+      </c>
+      <c r="W28" s="1">
+        <v>3.0316309236784801E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>3</v>
       </c>
@@ -1441,12 +1699,42 @@
       <c r="I29" s="1">
         <v>2.4278697567055599E-2</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="J29" s="1">
+        <v>2.46435650505979E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P29" s="1">
+        <v>1.1279907671483201E-3</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1.25490824393241E-3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.5355569750591499E-3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.55897668781489E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.6465600528195201E-3</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1.64990525348166E-3</v>
+      </c>
+      <c r="V29" s="1">
+        <v>2.58855400039547E-3</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2.89994030429602E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>4</v>
       </c>
@@ -1474,12 +1762,39 @@
       <c r="J30" s="1">
         <v>2.4664394623997499E-2</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>1.3595885574118501E-3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1.4157407440204099E-3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.6172386800030001E-3</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.6464911571257301E-3</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.6958152366287401E-3</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1.66938218415771E-3</v>
+      </c>
+      <c r="V30" s="1">
+        <v>2.4867416650595801E-3</v>
+      </c>
+      <c r="W30" s="1">
+        <v>2.8146238087992698E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>5</v>
       </c>
@@ -1508,11 +1823,12 @@
         <v>2.4639279380728601E-2</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>6</v>
       </c>
@@ -1536,12 +1852,39 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="1">
+        <v>1.9212729371507298E-2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.8385611224357699E-2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1.79555401885431E-2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.8402828896693299E-2</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1.8868440937002299E-2</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1.9320574241811501E-2</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2.9815811411954302E-2</v>
+      </c>
+      <c r="W32" s="1">
+        <v>3.0461047762443301E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>7</v>
       </c>
@@ -1565,12 +1908,38 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M33" s="1">
+        <v>4</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1.70304253464778E-2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1.6132861101737599E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1.5808564593517899E-2</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1.6431513712626199E-2</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1.68033328212111E-2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1.71051926466637E-2</v>
+      </c>
+      <c r="V33" s="1">
+        <v>2.8304093764590199E-2</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2.8891934458515602E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>8</v>
       </c>
@@ -1593,11 +1962,39 @@
         <v>2.3353563252734501E-2</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="1">
+        <v>1.51782951238204E-2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.48068640054365E-2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1.4662853030502999E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1.52899739168753E-2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1.5439232652477699E-2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.60193320277566E-2</v>
+      </c>
+      <c r="V34" s="1">
+        <v>2.7279038230317298E-2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2.7790103598264199E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -1621,10 +2018,9 @@
       </c>
       <c r="J35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>12</v>
       </c>
@@ -1647,11 +2043,38 @@
         <v>2.2851476521437201E-2</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M36" s="1">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>475.815110921859</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1005.7206852436</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>702.84593582153298</v>
+      </c>
+      <c r="R36" s="1">
+        <v>564.60525941848698</v>
+      </c>
+      <c r="S36" s="1">
+        <v>532.38345408439602</v>
+      </c>
+      <c r="T36" s="1">
+        <v>500.59992408752402</v>
+      </c>
+      <c r="U36" s="1">
+        <v>478.527571678161</v>
+      </c>
+      <c r="V36" s="1">
+        <v>442.04308223724303</v>
+      </c>
+      <c r="W36" s="1">
+        <v>432.60835433006201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>15</v>
       </c>
@@ -1674,11 +2097,39 @@
         <v>2.2462561971514802E-2</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1">
+        <v>4</v>
+      </c>
+      <c r="N37" s="1">
+        <v>475.815110921859</v>
+      </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P37" s="1">
+        <v>964.32774758338905</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>694.63196635246197</v>
+      </c>
+      <c r="R37" s="1">
+        <v>556.79798984527497</v>
+      </c>
+      <c r="S37" s="1">
+        <v>526.66722965240399</v>
+      </c>
+      <c r="T37" s="1">
+        <v>499.90224456787098</v>
+      </c>
+      <c r="U37" s="1">
+        <v>478.54514074325499</v>
+      </c>
+      <c r="V37" s="1">
+        <v>443.68499970436</v>
+      </c>
+      <c r="W37" s="1">
+        <v>434.02373528480501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>17</v>
       </c>
@@ -1699,11 +2150,39 @@
         <v>2.2288203627181698E-2</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1">
+        <v>5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>475.815110921859</v>
+      </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P38" s="1">
+        <v>954.90981578826904</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>686.99499630928005</v>
+      </c>
+      <c r="R38" s="1">
+        <v>554.00666141509998</v>
+      </c>
+      <c r="S38" s="1">
+        <v>523.63406538963295</v>
+      </c>
+      <c r="T38" s="1">
+        <v>497.019055366516</v>
+      </c>
+      <c r="U38" s="1">
+        <v>475.40083050727799</v>
+      </c>
+      <c r="V38" s="1">
+        <v>444.68258333206097</v>
+      </c>
+      <c r="W38" s="1">
+        <v>437.21082592010498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>20</v>
       </c>
@@ -1714,10 +2193,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1755,9 +2233,8 @@
         <v>4</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -1765,7 +2242,7 @@
         <v>460.815110921859</v>
       </c>
       <c r="D41" s="1">
-        <v>471.61050271987898</v>
+        <v>481.61050271987898</v>
       </c>
       <c r="E41" s="1">
         <v>502.52130293846102</v>
@@ -1774,7 +2251,7 @@
         <v>514.48043704032898</v>
       </c>
       <c r="G41" s="1">
-        <v>574.01769733428898</v>
+        <v>604.01769733428898</v>
       </c>
       <c r="H41" s="1">
         <v>665.73943901062</v>
@@ -1796,7 +2273,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1820,7 +2297,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1853,7 +2330,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1877,7 +2354,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>2</v>
       </c>
@@ -1910,7 +2387,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>3</v>
       </c>
@@ -1943,7 +2420,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>4</v>
       </c>
@@ -1976,7 +2453,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>5</v>
       </c>
@@ -2035,6 +2512,7 @@
       <c r="J49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
@@ -2094,7 +2572,6 @@
       </c>
       <c r="J51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
@@ -2124,7 +2601,6 @@
       </c>
       <c r="J52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
@@ -2151,7 +2627,6 @@
       </c>
       <c r="J53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
@@ -2178,7 +2653,6 @@
       </c>
       <c r="J54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -2203,7 +2677,6 @@
       </c>
       <c r="J55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
@@ -2217,7 +2690,6 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
@@ -2241,6 +2713,8 @@
       <c r="I58" s="1">
         <v>60</v>
       </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
@@ -2467,11 +2941,11 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1">
-        <f t="shared" ref="F72:G72" si="4">F69/E69</f>
+        <f t="shared" ref="F72:G72" si="8">F69/E69</f>
         <v>0.87103717278792059</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.95842978867388029</v>
       </c>
       <c r="H72" s="1">
@@ -2495,15 +2969,15 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="F74">
-        <f t="shared" ref="F74:H74" si="5">E61/F61</f>
+        <f t="shared" ref="F74:H74" si="9">E61/F61</f>
         <v>0.98539723036814764</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.9893472921930776</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.97088739249343048</v>
       </c>
       <c r="I74">
@@ -2518,6 +2992,10 @@
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
+      <c r="F76">
+        <f>540*5</f>
+        <v>2700</v>
+      </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
@@ -2558,6 +3036,841 @@
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B290F4B-9131-8748-B178-213CDB52D48A}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1">
+        <v>120</v>
+      </c>
+      <c r="H1">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1">
+        <v>240</v>
+      </c>
+      <c r="J1" s="1">
+        <v>360</v>
+      </c>
+      <c r="K1" s="1">
+        <v>720</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1080</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.2362449811100401E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4309143885702601E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.23949515490381E-3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.36256955777463E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.55848900346616E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5997229316549501E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.6701830948668501E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.6779149569514E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.7473158596697002E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.0316309236784801E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6397609942219701E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3689490397241801E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.1279907671483201E-3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.25490824393241E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.5355569750591499E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.55897668781489E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.6465600528195201E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.64990525348166E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.69637524442368E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.58855400039547E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.89994030429602E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.9903688339885503E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.5499090271482398E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.4792559672696501E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3595885574118501E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.4157407440204099E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.6172386800030001E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6464911571257301E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.6958152366287401E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.66938218415771E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.4867416650595801E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.8146238087992698E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7187784516444999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7127516271427098E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.9212729371507298E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.8385611224357699E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.79555401885431E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.8402828896693299E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.8868440937002299E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.9320574241811501E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.9815811411954302E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.0461047762443301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.62256165912423E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.5140276939403801E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.70304253464778E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.6132861101737599E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.5808564593517899E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.6431513712626199E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.68033328212111E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.71051926466637E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.3513756596822599E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.8304093764590199E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.8891934458515602E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.6129372841136003E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.84285939837684E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4398893836846199E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.51782951238204E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.48068640054365E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.4662853030502999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.52899739168753E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.5439232652477699E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.60193320277566E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.7279038230317298E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.7790103598264199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>475.815110921859</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7773.1966502666401</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1501.32293367385</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1005.7206852436</v>
+      </c>
+      <c r="F10" s="1">
+        <v>702.84593582153298</v>
+      </c>
+      <c r="G10" s="1">
+        <v>564.60525941848698</v>
+      </c>
+      <c r="H10" s="1">
+        <v>532.38345408439602</v>
+      </c>
+      <c r="I10" s="1">
+        <v>500.59992408752402</v>
+      </c>
+      <c r="J10" s="1">
+        <v>478.527571678161</v>
+      </c>
+      <c r="L10" s="1">
+        <v>442.04308223724303</v>
+      </c>
+      <c r="M10" s="1">
+        <v>432.60835433006201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>475.815110921859</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8093.7134823799097</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1398.4362430572501</v>
+      </c>
+      <c r="E11" s="1">
+        <v>964.32774758338905</v>
+      </c>
+      <c r="F11" s="1">
+        <v>694.63196635246197</v>
+      </c>
+      <c r="G11" s="1">
+        <v>556.79798984527497</v>
+      </c>
+      <c r="H11" s="1">
+        <v>526.66722965240399</v>
+      </c>
+      <c r="I11" s="1">
+        <v>499.90224456787098</v>
+      </c>
+      <c r="J11" s="1">
+        <v>478.54514074325499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>466.42949986457802</v>
+      </c>
+      <c r="L11" s="1">
+        <v>443.68499970436</v>
+      </c>
+      <c r="M11" s="1">
+        <v>434.02373528480501</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>475.815110921859</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8470.2135870456696</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1350.47738838195</v>
+      </c>
+      <c r="E12" s="1">
+        <v>954.90981578826904</v>
+      </c>
+      <c r="F12" s="1">
+        <v>686.99499630928005</v>
+      </c>
+      <c r="G12" s="1">
+        <v>554.00666141509998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>523.63406538963295</v>
+      </c>
+      <c r="I12" s="1">
+        <v>497.019055366516</v>
+      </c>
+      <c r="J12" s="1">
+        <v>475.40083050727799</v>
+      </c>
+      <c r="L12" s="1">
+        <v>444.68258333206097</v>
+      </c>
+      <c r="M12" s="1">
+        <v>437.21082592010498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f>G15*0.25</f>
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:K14" si="0">H15*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="L14">
+        <f>L15*0.25</f>
+        <v>270</v>
+      </c>
+      <c r="M14">
+        <f>M15*0.25</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1">
+        <v>120</v>
+      </c>
+      <c r="H15">
+        <v>180</v>
+      </c>
+      <c r="I15" s="1">
+        <v>240</v>
+      </c>
+      <c r="J15" s="1">
+        <v>360</v>
+      </c>
+      <c r="K15" s="1">
+        <v>720</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1080</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.89459733369265E-6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.9612948574299298E-6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.99907298002752E-6</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.0882195907915598E-6</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.2812550129034902E-6</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.5390445517695198E-6</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2.59865650871876E-6</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2.8607353312570702E-6</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3.7535601449089602E-6</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4.0156188963927396E-6</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3.1424791086927002E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5.89459733369265E-6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.04359442588749E-6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.03396430383399E-6</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.01765740062948E-6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.4116219435455201E-6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.77094216094322E-6</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.74320418069479E-6</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3.0855680017691398E-6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>3.9966346155684699E-6</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4.45550826896701E-6</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.99976834364582E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.89459733369265E-6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.24546789589412E-6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.2743489166476299E-6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2.3631455471991299E-6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.8147805671658E-6</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.1041501153840001E-6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.2756378575647902E-6</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3.6996057164598301E-6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4.4623311896120397E-6</v>
+      </c>
+      <c r="L18" s="5">
+        <v>5.04752932529019E-6</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3.4852980071999298E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.3825203319139902E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.3977674817614401E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.3972194401515001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.3925462233678901E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.3874847941244701E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.37569968261972E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.3697288956535899E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.3745829068304102E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.39638366858538E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.3988622824715301E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.38529630251921E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.3825203319139902E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.3830594597340202E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.3814867394959499E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.3795561976522901E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.3828869405902401E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.3901506535594901E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.3900221489808499E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.36787354326858E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.38033971851647E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.3807277302195999E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.3878363240813799E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.3825203319139902E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.3776181815768901E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.3767241812733E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.37578282003293E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.3790408220791901E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.3633035019372899E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.3619501430500098E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.3653637260838301E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.36255535240622E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2.37534632012492E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2.3771511596895299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>604.01769733428898</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1744.6351258754701</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1322.6261296272201</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1022.48732495307</v>
+      </c>
+      <c r="G24" s="1">
+        <v>754.05131864547695</v>
+      </c>
+      <c r="H24" s="1">
+        <v>709.02919864654496</v>
+      </c>
+      <c r="I24" s="1">
+        <v>664.63764142990101</v>
+      </c>
+      <c r="J24" s="1">
+        <v>644.84938645362797</v>
+      </c>
+      <c r="K24" s="1">
+        <v>579.27817845344498</v>
+      </c>
+      <c r="L24" s="1">
+        <v>549.55700000000002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>537.14612889289799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>604.01769733428898</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1811.7494034767101</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1365.46830701828</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1044.5658712387001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>779.01493668556202</v>
+      </c>
+      <c r="H25" s="1">
+        <v>719.69372272491398</v>
+      </c>
+      <c r="I25" s="1">
+        <v>684.56547188758805</v>
+      </c>
+      <c r="J25" s="1">
+        <v>650.28327798843304</v>
+      </c>
+      <c r="K25" s="1">
+        <v>580.10220003127995</v>
+      </c>
+      <c r="L25" s="1">
+        <v>561.72220730781498</v>
+      </c>
+      <c r="M25" s="1">
+        <v>546.73593711853005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>604.01769733428898</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1853.3601181507099</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1394.99396443367</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1062.2885358333499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>785.52641201019196</v>
+      </c>
+      <c r="H26" s="1">
+        <v>726.94572305679299</v>
+      </c>
+      <c r="I26" s="1">
+        <v>691.77806544303803</v>
+      </c>
+      <c r="J26" s="1">
+        <v>661.58893728256203</v>
+      </c>
+      <c r="K26" s="1">
+        <v>589.15391349792401</v>
+      </c>
+      <c r="L26" s="1">
+        <v>569.26607608795098</v>
+      </c>
+      <c r="M26" s="1">
+        <v>548.06824612617402</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
